--- a/results/5Fold_support.xlsx
+++ b/results/5Fold_support.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,19 +524,19 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5791917901914728</v>
+        <v>0.5818248275108028</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5785355149991636</v>
+        <v>0.5808132097279911</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6207366382059899</v>
+        <v>0.6204640429425174</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2222871744230837</v>
+        <v>0.2223188322754941</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3375725839819227</v>
+        <v>0.336785557440349</v>
       </c>
     </row>
     <row r="3">
@@ -568,19 +568,19 @@
         <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5789792909942546</v>
+        <v>0.5806399233359099</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5782662713003293</v>
+        <v>0.5791609185527469</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6208117371856071</v>
+        <v>0.6194218405542814</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2229993503999724</v>
+        <v>0.2230083803021249</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3375752065862928</v>
+        <v>0.3368845709732601</v>
       </c>
     </row>
     <row r="4">
@@ -612,19 +612,19 @@
         <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5774246651250386</v>
+        <v>0.580356397893463</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5769616089581119</v>
+        <v>0.5793562701204541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6185971935163953</v>
+        <v>0.6185354459898059</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2223504940723241</v>
+        <v>0.22236551619773</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3376777810709817</v>
+        <v>0.3369539448193141</v>
       </c>
     </row>
     <row r="5">
@@ -656,19 +656,19 @@
         <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5774324196363791</v>
+        <v>0.5786463405890849</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5768239168338692</v>
+        <v>0.5777189559031033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6183258812935645</v>
+        <v>0.6158428665980591</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2225452049115138</v>
+        <v>0.2225904691622319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3376516580581665</v>
+        <v>0.3369714719908578</v>
       </c>
     </row>
     <row r="6">
@@ -700,19 +700,19 @@
         <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5779813687076221</v>
+        <v>0.5802008005626291</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5774427984720496</v>
+        <v>0.5789487603411192</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6195480895568085</v>
+        <v>0.6184472022569144</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2224509394713673</v>
+        <v>0.2224353970306835</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3376222968101502</v>
+        <v>0.3368659538882119</v>
       </c>
     </row>
     <row r="7">
@@ -889,6 +889,490 @@
       </c>
       <c r="L10" t="n">
         <v>4.953144236973353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>777</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5832734782967691</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5845777540684196</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6096884641577465</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4772500961414144</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.953138855525426</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5166137221073857</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5155033768371042</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6207169857098309</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2110434539820347</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.500400114059448</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5158354704717855</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5148503122899342</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6219576327220973</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2117944259452377</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.50123085294451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5150728183138983</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5141547588510557</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.619022255282538</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2114197155799596</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.501227171080453</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>114514</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.515815512735734</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5146715257913252</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6204756367591548</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2115618905531023</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.500800572122846</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>777</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5162699407181213</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5152044340468672</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6211514156807413</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.211162350993656</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.501092239788601</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5802864700313248</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5789071289565351</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6239185941193776</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2195418594067335</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.431025634493147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5806586826236617</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.5792462297469883</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6249195083262713</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2201910529384215</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.432470233099802</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5792432012110191</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5779370755388042</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6225848083651951</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2197664469405751</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.43164734840393</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>114514</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5796557090683673</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5781039647936933</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6236702290318552</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2199656428810279</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.431639562334333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>777</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5801272816047549</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5787768088045542</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.624124528602706</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2195556228862435</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.43187678200858</v>
       </c>
     </row>
   </sheetData>
